--- a/excle_data/lineCase.xlsx
+++ b/excle_data/lineCase.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="20385" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="模块1" sheetId="1" r:id="rId1"/>
-    <sheet name="模块2" sheetId="2" r:id="rId2"/>
+    <sheet name="getTemps" sheetId="8" r:id="rId1"/>
+    <sheet name="getFormals" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>用例名称</t>
   </si>
@@ -29,34 +30,28 @@
     <t>接口名称</t>
   </si>
   <si>
-    <t>Cookie(Y/N)</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>pay_type</t>
-  </si>
-  <si>
-    <t>begin_date</t>
-  </si>
-  <si>
-    <t>end_date</t>
-  </si>
-  <si>
-    <t>order_id</t>
+    <t>verify</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>per_page</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>page_index</t>
+  </si>
+  <si>
+    <t>page_size</t>
   </si>
   <si>
     <t>期望code</t>
@@ -65,76 +60,90 @@
     <t>期望errmsg</t>
   </si>
   <si>
-    <t>期望data数据</t>
-  </si>
-  <si>
-    <t>交易记录默认查询</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>期望data包含的数据</t>
+  </si>
+  <si>
+    <t>临时里程查询1_通过_带路段名称</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>/order/pay/record</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>/line/mileage/formals</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2019-08-11</t>
-  </si>
-  <si>
-    <t>2019-09-10</t>
+    <t>上海中心上海中心-南京南南</t>
+  </si>
+  <si>
+    <t>2019-11</t>
+  </si>
+  <si>
+    <t>fc04bae4-01fe-11ea-86d5-00163e050a03</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>临时里程查询2_通过_生效中状态</t>
+  </si>
+  <si>
+    <t>/line/mileage/formals333</t>
+  </si>
+  <si>
     <t>1000</t>
   </si>
   <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>count:8</t>
-  </si>
-  <si>
-    <t>交易记录带订单号</t>
-  </si>
-  <si>
-    <t>88043431568037876748</t>
-  </si>
-  <si>
-    <t>order_id:"40450151568038345240"</t>
-  </si>
-  <si>
-    <t>交易记录带分类</t>
+    <t>临时里程查询3_通过_暂停中状态</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>临时里程查询4_通过_已过期状态</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>count:3</t>
-  </si>
-  <si>
-    <t>/order/pay/record2</t>
+    <t>临时里程查询5_待审核_带路段名称</t>
+  </si>
+  <si>
+    <t>正式里程查询1_通过_带路段名称</t>
+  </si>
+  <si>
+    <t>/line/mileage/temps</t>
+  </si>
+  <si>
+    <t>正式里程查询2_通过_生效中状态</t>
+  </si>
+  <si>
+    <t>正式里程查询3_通过_暂停中状态</t>
+  </si>
+  <si>
+    <t>正式里程查询4_通过_已过期状态</t>
+  </si>
+  <si>
+    <t>正式里程查询5_待审核_带路段名称</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -153,37 +162,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +173,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,22 +210,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,25 +247,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,8 +262,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,17 +299,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,187 +321,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +526,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,45 +596,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -605,7 +614,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -772,22 +781,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -842,7 +851,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1109,31 +1118,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="15" max="15" width="18.625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1154,174 +1176,379 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+    </row>
+    <row r="2" customFormat="1" spans="1:14">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:17">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:14">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="6">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:17">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="6">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:17">
-      <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:14">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="6">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:14">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:14">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1332,28 +1559,38 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A1" sqref="$A1:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="1" max="1" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="11" max="11" width="10" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9" style="5"/>
+    <col min="14" max="14" width="10.125" customWidth="1"/>
+    <col min="15" max="15" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1374,173 +1611,429 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:17">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="6">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:17">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:14">
+      <c r="A3" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="6">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:17">
-      <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:14">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="L4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="6">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:14">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:14">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="10" max="10" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:14">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:14">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:14">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/excle_data/lineCase.xlsx
+++ b/excle_data/lineCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="getTemps" sheetId="8" r:id="rId1"/>
@@ -174,12 +174,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -187,15 +256,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,47 +303,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,61 +316,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -332,187 +332,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,21 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -567,11 +552,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,18 +591,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,6 +614,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -646,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1582,7 +1582,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1591,8 +1591,8 @@
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="33.25" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="15.625" customWidth="1"/>
     <col min="11" max="11" width="10" style="2" customWidth="1"/>
@@ -1662,7 +1662,9 @@
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
       </c>

--- a/excle_data/lineCase.xlsx
+++ b/excle_data/lineCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>用例名称</t>
   </si>
@@ -119,31 +119,64 @@
     <t>临时里程查询5_待审核_带路段名称</t>
   </si>
   <si>
-    <t>正式里程查询1_通过_带路段名称</t>
+    <t>mileage_type</t>
+  </si>
+  <si>
+    <t>oa_status</t>
+  </si>
+  <si>
+    <t>transport_type</t>
+  </si>
+  <si>
+    <t>origin_name</t>
+  </si>
+  <si>
+    <t>destination_name</t>
+  </si>
+  <si>
+    <t>section_name</t>
+  </si>
+  <si>
+    <t>正式里程查询1_带正确始发地名称</t>
+  </si>
+  <si>
+    <t>/v1/line/mileages</t>
+  </si>
+  <si>
+    <t>明珠</t>
+  </si>
+  <si>
+    <t>禄口国际机场</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>LDMOT210901ATO250901B</t>
+  </si>
+  <si>
+    <t>正式里程查询2_错误起始地名称</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>错误地址</t>
+  </si>
+  <si>
+    <t>正式里程查询3_路段名称</t>
+  </si>
+  <si>
+    <t>上海中心-南京中心</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>正式里程查询4_通过_已过期状态</t>
   </si>
   <si>
     <t>/line/mileage/formals</t>
-  </si>
-  <si>
-    <t>58411eea4a-042f-11ea-86d5-00163e050a03</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>正式里程查询2_通过_生效中状态</t>
-  </si>
-  <si>
-    <t>LDM333OT108611ATO192838A0001</t>
-  </si>
-  <si>
-    <t>正式里程查询3_通过_暂停中状态</t>
-  </si>
-  <si>
-    <t>正式里程查询4_通过_已过期状态</t>
-  </si>
-  <si>
-    <t>正式里程查询5_待审核_带路段名称</t>
   </si>
 </sst>
 </file>
@@ -152,9 +185,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -187,6 +220,128 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -194,128 +349,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -332,187 +365,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,20 +574,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,47 +600,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,6 +621,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -646,145 +679,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1579,29 +1612,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="32.875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="33.25" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="10" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9" style="2"/>
-    <col min="14" max="14" width="10.125" customWidth="1"/>
-    <col min="15" max="15" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="2" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="11" width="17.625" customWidth="1"/>
+    <col min="12" max="12" width="15.25" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="14" max="14" width="25.375" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+    <col min="17" max="17" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1615,166 +1649,171 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:15">
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:17">
       <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>24</v>
       </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:14">
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:17">
       <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="M4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:14">
+      <c r="Q4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:16">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>29</v>
@@ -1783,7 +1822,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1792,63 +1831,23 @@
         <v>32</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:14">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="P5" t="s">
         <v>24</v>
       </c>
     </row>

--- a/excle_data/lineCase.xlsx
+++ b/excle_data/lineCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>用例名称</t>
   </si>
@@ -152,28 +152,31 @@
     <t>20</t>
   </si>
   <si>
+    <t>"section_name": "上海中心-南京中心"</t>
+  </si>
+  <si>
+    <t>正式里程查询2_错误起始地名称</t>
+  </si>
+  <si>
+    <t>错误地址</t>
+  </si>
+  <si>
+    <t>total=0</t>
+  </si>
+  <si>
+    <t>正式里程查询3_路段名称</t>
+  </si>
+  <si>
+    <t>上海中心-南京中心</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>LDMOT210901ATO250901B</t>
   </si>
   <si>
-    <t>正式里程查询2_错误起始地名称</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>错误地址</t>
-  </si>
-  <si>
-    <t>正式里程查询3_路段名称</t>
-  </si>
-  <si>
-    <t>上海中心-南京中心</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>正式里程查询4_通过_已过期状态</t>
+    <t>正式里程查询4_生效_未提交状态</t>
   </si>
   <si>
     <t>/line/mileage/formals</t>
@@ -184,10 +187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -206,22 +209,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,6 +232,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -243,27 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -272,6 +277,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -280,19 +307,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,18 +323,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,27 +340,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -365,85 +368,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,97 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,6 +624,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -635,15 +647,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,133 +694,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1614,8 +1617,8 @@
   <sheetPr/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1632,7 +1635,7 @@
     <col min="13" max="13" width="22" customWidth="1"/>
     <col min="14" max="14" width="25.375" customWidth="1"/>
     <col min="16" max="16" width="10.125" customWidth="1"/>
-    <col min="17" max="17" width="32" customWidth="1"/>
+    <col min="17" max="17" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:17">
@@ -1733,9 +1736,7 @@
       <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1749,7 +1750,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1769,7 +1770,7 @@
         <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:17">
@@ -1808,12 +1809,12 @@
         <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:16">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>29</v>
@@ -1822,7 +1823,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1830,10 +1831,10 @@
       <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
